--- a/Homologación Causa-Urgencia.xlsx
+++ b/Homologación Causa-Urgencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EMERGENCY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96353DA8-882B-4139-A7D3-2C7AB4215362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39778A-F82E-408C-A1D4-CA487C37F4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9A47FF8A-0E0E-4EF6-8C7C-2C95F0F37477}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>id_urgencia</t>
   </si>
@@ -317,13 +317,25 @@
   </si>
   <si>
     <t>TRAUMATISMOS Y ENVENENAMIENTOS</t>
+  </si>
+  <si>
+    <t>COVID 19 CONFIRMADO (U071)</t>
+  </si>
+  <si>
+    <t>COVID 19 Sospechoso (U072)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +347,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -678,11 +696,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789A46E-5945-4174-BF18-38FEC7A7F2CF}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1139,7 +1155,36 @@
         <v>9</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>